--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gcb\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC702A-4315-4D39-A1F4-46336E60E20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5F380-EB24-423A-ADFE-BC24CA0C61D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{32BFCFD5-4181-4899-8AD6-6C4EA31256AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Additional Features</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
   </si>
 </sst>
 </file>
@@ -72,8 +78,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,26 +400,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0750DADB-2F54-4C29-B268-F3ADDE8E09DD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gcb\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5F380-EB24-423A-ADFE-BC24CA0C61D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D14941-4041-4BFD-A86A-00D108D8C46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{32BFCFD5-4181-4899-8AD6-6C4EA31256AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,72 @@
   </si>
   <si>
     <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Khayle</t>
+  </si>
+  <si>
+    <t>Jayson</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>Kester</t>
+  </si>
+  <si>
+    <t>Ardhen</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Paulie</t>
+  </si>
+  <si>
+    <t>JohnMark</t>
+  </si>
+  <si>
+    <t>Jec</t>
+  </si>
+  <si>
+    <t>Archie</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Membership with chat feature</t>
+  </si>
+  <si>
+    <t>Lottie/LottieFiles</t>
+  </si>
+  <si>
+    <t>Photoshop</t>
   </si>
 </sst>
 </file>
@@ -78,13 +144,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,63 +475,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0750DADB-2F54-4C29-B268-F3ADDE8E09DD}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.03</v>
-      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>60</v>
+      </c>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>